--- a/user-data/grants-percent-total-revenue/grants-percent-total-revenue.xlsx
+++ b/user-data/grants-percent-total-revenue/grants-percent-total-revenue.xlsx
@@ -6146,7 +6146,7 @@
         <v>2010</v>
       </c>
       <c r="D283" t="n">
-        <v>3.31325301204819</v>
+        <v>3.3033033033033</v>
       </c>
       <c r="E283" t="s">
         <v>7</v>
@@ -6786,7 +6786,7 @@
         <v>2004</v>
       </c>
       <c r="D321" t="n">
-        <v>1.93785499498831</v>
+        <v>1.92744392135143</v>
       </c>
       <c r="E321" t="s">
         <v>7</v>
@@ -6854,7 +6854,7 @@
         <v>2008</v>
       </c>
       <c r="D325" t="n">
-        <v>2.10736393464804</v>
+        <v>2.09306232151856</v>
       </c>
       <c r="E325" t="s">
         <v>7</v>
@@ -14777,7 +14777,7 @@
         <v>2017</v>
       </c>
       <c r="D800" t="n">
-        <v>2.38544474393531</v>
+        <v>2.68466555437585</v>
       </c>
       <c r="E800" t="s">
         <v>7</v>
@@ -14794,7 +14794,7 @@
         <v>2018</v>
       </c>
       <c r="D801" t="n">
-        <v>0.119487290897241</v>
+        <v>0.13603759584467</v>
       </c>
       <c r="E801" t="s">
         <v>8</v>
@@ -14811,7 +14811,7 @@
         <v>2019</v>
       </c>
       <c r="D802" t="n">
-        <v>0.107971927298902</v>
+        <v>0.120048019207683</v>
       </c>
       <c r="E802" t="s">
         <v>8</v>
@@ -14828,7 +14828,7 @@
         <v>2020</v>
       </c>
       <c r="D803" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.106477373558119</v>
       </c>
       <c r="E803" t="s">
         <v>8</v>
@@ -14845,7 +14845,7 @@
         <v>2021</v>
       </c>
       <c r="D804" t="n">
-        <v>0.0831370375502286</v>
+        <v>0.0932618325950105</v>
       </c>
       <c r="E804" t="s">
         <v>8</v>
@@ -14862,7 +14862,7 @@
         <v>2022</v>
       </c>
       <c r="D805" t="n">
-        <v>0.0795934610910427</v>
+        <v>0.0890045186909489</v>
       </c>
       <c r="E805" t="s">
         <v>8</v>
@@ -19107,7 +19107,7 @@
         <v>2023</v>
       </c>
       <c r="D1058" t="n">
-        <v>5.95612141744761</v>
+        <v>5.95869078192448</v>
       </c>
       <c r="E1058" t="s">
         <v>8</v>
@@ -19756,7 +19756,7 @@
         <v>2014</v>
       </c>
       <c r="D1097" t="n">
-        <v>2.80373831775701</v>
+        <v>2.80186791194129</v>
       </c>
       <c r="E1097" t="s">
         <v>7</v>
@@ -19807,7 +19807,7 @@
         <v>2017</v>
       </c>
       <c r="D1100" t="n">
-        <v>7.16827656329436</v>
+        <v>7.04647676161919</v>
       </c>
       <c r="E1100" t="s">
         <v>8</v>
@@ -19824,7 +19824,7 @@
         <v>2018</v>
       </c>
       <c r="D1101" t="n">
-        <v>7.64925373134328</v>
+        <v>7.59962928637627</v>
       </c>
       <c r="E1101" t="s">
         <v>8</v>
@@ -19841,7 +19841,7 @@
         <v>2019</v>
       </c>
       <c r="D1102" t="n">
-        <v>7.20524017467249</v>
+        <v>7.18954248366013</v>
       </c>
       <c r="E1102" t="s">
         <v>8</v>
@@ -27561,7 +27561,7 @@
         <v>2009</v>
       </c>
       <c r="D1566" t="n">
-        <v>36.1340181671185</v>
+        <v>35.6352567620173</v>
       </c>
       <c r="E1566" t="s">
         <v>7</v>
@@ -27578,7 +27578,7 @@
         <v>2010</v>
       </c>
       <c r="D1567" t="n">
-        <v>30.7392996108949</v>
+        <v>30.2681992337165</v>
       </c>
       <c r="E1567" t="s">
         <v>7</v>
@@ -27595,7 +27595,7 @@
         <v>2011</v>
       </c>
       <c r="D1568" t="n">
-        <v>23.8970588235294</v>
+        <v>23.7226277372263</v>
       </c>
       <c r="E1568" t="s">
         <v>7</v>
@@ -27612,7 +27612,7 @@
         <v>2012</v>
       </c>
       <c r="D1569" t="n">
-        <v>16.6666666666667</v>
+        <v>16.4750957854406</v>
       </c>
       <c r="E1569" t="s">
         <v>7</v>
@@ -27629,7 +27629,7 @@
         <v>2013</v>
       </c>
       <c r="D1570" t="n">
-        <v>37.3417721518987</v>
+        <v>37.0292887029289</v>
       </c>
       <c r="E1570" t="s">
         <v>7</v>
@@ -27646,7 +27646,7 @@
         <v>2014</v>
       </c>
       <c r="D1571" t="n">
-        <v>13.6986301369863</v>
+        <v>13.64522417154</v>
       </c>
       <c r="E1571" t="s">
         <v>7</v>
@@ -27663,7 +27663,7 @@
         <v>2015</v>
       </c>
       <c r="D1572" t="n">
-        <v>13.136288998358</v>
+        <v>13.0081300813008</v>
       </c>
       <c r="E1572" t="s">
         <v>7</v>
@@ -27680,7 +27680,7 @@
         <v>2016</v>
       </c>
       <c r="D1573" t="n">
-        <v>17.1018276762402</v>
+        <v>17.0572916666667</v>
       </c>
       <c r="E1573" t="s">
         <v>7</v>
@@ -27697,7 +27697,7 @@
         <v>2017</v>
       </c>
       <c r="D1574" t="n">
-        <v>14.9646107178969</v>
+        <v>14.8</v>
       </c>
       <c r="E1574" t="s">
         <v>7</v>
@@ -27714,7 +27714,7 @@
         <v>2018</v>
       </c>
       <c r="D1575" t="n">
-        <v>12.6760563380282</v>
+        <v>12.5231910946197</v>
       </c>
       <c r="E1575" t="s">
         <v>8</v>
@@ -27731,7 +27731,7 @@
         <v>2019</v>
       </c>
       <c r="D1576" t="n">
-        <v>13.8359569179785</v>
+        <v>13.599348534202</v>
       </c>
       <c r="E1576" t="s">
         <v>8</v>
@@ -27748,7 +27748,7 @@
         <v>2020</v>
       </c>
       <c r="D1577" t="n">
-        <v>12.2062168309325</v>
+        <v>11.9970193740686</v>
       </c>
       <c r="E1577" t="s">
         <v>8</v>
@@ -52556,7 +52556,7 @@
         <v>3.35195530726257</v>
       </c>
       <c r="M15" t="n">
-        <v>3.31325301204819</v>
+        <v>3.3033033033033</v>
       </c>
       <c r="N15" t="n">
         <v>2.20994475138122</v>
@@ -52686,7 +52686,7 @@
         <v>0.376612953015991</v>
       </c>
       <c r="G17" t="n">
-        <v>1.93785499498831</v>
+        <v>1.92744392135143</v>
       </c>
       <c r="H17" t="n">
         <v>0.50747743297256</v>
@@ -52698,7 +52698,7 @@
         <v>2.01543889063537</v>
       </c>
       <c r="K17" t="n">
-        <v>2.10736393464804</v>
+        <v>2.09306232151856</v>
       </c>
       <c r="L17" t="n">
         <v>2.64962271302071</v>
@@ -54198,22 +54198,22 @@
         <v>0.63752276867031</v>
       </c>
       <c r="T38" t="n">
-        <v>2.38544474393531</v>
+        <v>2.68466555437585</v>
       </c>
       <c r="U38" t="n">
-        <v>0.119487290897241</v>
+        <v>0.13603759584467</v>
       </c>
       <c r="V38" t="n">
-        <v>0.107971927298902</v>
+        <v>0.120048019207683</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.106477373558119</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0831370375502286</v>
+        <v>0.0932618325950105</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0795934610910427</v>
+        <v>0.0890045186909489</v>
       </c>
       <c r="Z38"/>
       <c r="AA38"/>
@@ -55027,7 +55027,7 @@
         <v>6.22685545355531</v>
       </c>
       <c r="Z49" t="n">
-        <v>5.95612141744761</v>
+        <v>5.95869078192448</v>
       </c>
       <c r="AA49"/>
     </row>
@@ -55148,7 +55148,7 @@
         <v>4.68956406869221</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.80373831775701</v>
+        <v>2.80186791194129</v>
       </c>
       <c r="R51" t="n">
         <v>3.45205479452055</v>
@@ -55157,13 +55157,13 @@
         <v>3.92749244712991</v>
       </c>
       <c r="T51" t="n">
-        <v>7.16827656329436</v>
+        <v>7.04647676161919</v>
       </c>
       <c r="U51" t="n">
-        <v>7.64925373134328</v>
+        <v>7.59962928637627</v>
       </c>
       <c r="V51" t="n">
-        <v>7.20524017467249</v>
+        <v>7.18954248366013</v>
       </c>
       <c r="W51" t="n">
         <v>3.34821428571429</v>
@@ -56606,40 +56606,40 @@
         <v>36.2191134825042</v>
       </c>
       <c r="L72" t="n">
-        <v>36.1340181671185</v>
+        <v>35.6352567620173</v>
       </c>
       <c r="M72" t="n">
-        <v>30.7392996108949</v>
+        <v>30.2681992337165</v>
       </c>
       <c r="N72" t="n">
-        <v>23.8970588235294</v>
+        <v>23.7226277372263</v>
       </c>
       <c r="O72" t="n">
-        <v>16.6666666666667</v>
+        <v>16.4750957854406</v>
       </c>
       <c r="P72" t="n">
-        <v>37.3417721518987</v>
+        <v>37.0292887029289</v>
       </c>
       <c r="Q72" t="n">
-        <v>13.6986301369863</v>
+        <v>13.64522417154</v>
       </c>
       <c r="R72" t="n">
-        <v>13.136288998358</v>
+        <v>13.0081300813008</v>
       </c>
       <c r="S72" t="n">
-        <v>17.1018276762402</v>
+        <v>17.0572916666667</v>
       </c>
       <c r="T72" t="n">
-        <v>14.9646107178969</v>
+        <v>14.8</v>
       </c>
       <c r="U72" t="n">
-        <v>12.6760563380282</v>
+        <v>12.5231910946197</v>
       </c>
       <c r="V72" t="n">
-        <v>13.8359569179785</v>
+        <v>13.599348534202</v>
       </c>
       <c r="W72" t="n">
-        <v>12.2062168309325</v>
+        <v>11.9970193740686</v>
       </c>
       <c r="X72"/>
       <c r="Y72"/>
